--- a/results/Model_Output_Domestic_Share.xlsx
+++ b/results/Model_Output_Domestic_Share.xlsx
@@ -796,13 +796,13 @@
         <v>11978519956897.5</v>
       </c>
       <c r="F3" t="n">
-        <v>88174262.05022477</v>
+        <v>88174262.05022478</v>
       </c>
       <c r="G3" t="n">
-        <v>611842245.3157589</v>
+        <v>611842245.3157588</v>
       </c>
       <c r="H3" t="n">
-        <v>50986853.7763132</v>
+        <v>50986853.7763133</v>
       </c>
       <c r="I3" t="n">
         <v>29135345.01503614</v>
@@ -844,7 +844,7 @@
         <v>60012162.63658536</v>
       </c>
       <c r="V3" t="n">
-        <v>3158534.875609759</v>
+        <v>3158534.875609758</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>55041682.83658537</v>
       </c>
       <c r="V6" t="n">
-        <v>2896930.675609759</v>
+        <v>2896930.675609758</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1188,25 +1188,25 @@
         <v>20456544461872.5</v>
       </c>
       <c r="F7" t="n">
-        <v>65523469.142428</v>
+        <v>65431682.46327773</v>
       </c>
       <c r="G7" t="n">
-        <v>429405238.7913954</v>
+        <v>429405238.7913955</v>
       </c>
       <c r="H7" t="n">
-        <v>24874463.29607419</v>
+        <v>24832589.43561256</v>
       </c>
       <c r="I7" t="n">
-        <v>10277917.97167803</v>
+        <v>13709926.32575445</v>
       </c>
       <c r="J7" t="n">
-        <v>21660228.06720362</v>
+        <v>18829160.63636295</v>
       </c>
       <c r="K7" t="n">
-        <v>11645838.79899859</v>
+        <v>16553765.84227442</v>
       </c>
       <c r="L7" t="n">
-        <v>38892861.5638944</v>
+        <v>33425867.45784448</v>
       </c>
       <c r="M7" t="n">
         <v>41310857.35084911</v>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>43965544.32439024</v>
+        <v>43965544.32439025</v>
       </c>
       <c r="V7" t="n">
-        <v>2313976.017073173</v>
+        <v>2313976.017073172</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>12489497461872.5</v>
       </c>
       <c r="F8" t="n">
-        <v>66330796.128839</v>
+        <v>65777135.61209197</v>
       </c>
       <c r="G8" t="n">
         <v>429405238.7913954</v>
       </c>
       <c r="H8" t="n">
-        <v>23567330.71849152</v>
+        <v>29821999.50657996</v>
       </c>
       <c r="I8" t="n">
-        <v>16340679.86658077</v>
+        <v>10303139.14886588</v>
       </c>
       <c r="J8" t="n">
-        <v>9541979.674418278</v>
+        <v>22194236.57008621</v>
       </c>
       <c r="K8" t="n">
-        <v>18646954.95711081</v>
+        <v>12066028.07685598</v>
       </c>
       <c r="L8" t="n">
-        <v>39254364.48124744</v>
+        <v>32965906.3954608</v>
       </c>
       <c r="M8" t="n">
         <v>41310857.35084911</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>43965544.32439024</v>
+        <v>43965544.32439025</v>
       </c>
       <c r="V8" t="n">
-        <v>2313976.017073173</v>
+        <v>2313976.017073172</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1384,25 +1384,25 @@
         <v>12489497461872.5</v>
       </c>
       <c r="F9" t="n">
-        <v>64985871.1825485</v>
+        <v>64805656.84637473</v>
       </c>
       <c r="G9" t="n">
         <v>429405238.7913954</v>
       </c>
       <c r="H9" t="n">
-        <v>26332435.27159672</v>
+        <v>20476616.11528154</v>
       </c>
       <c r="I9" t="n">
-        <v>15827204.27116284</v>
+        <v>18800706.53023851</v>
       </c>
       <c r="J9" t="n">
-        <v>20413239.43133386</v>
+        <v>15966890.10161185</v>
       </c>
       <c r="K9" t="n">
-        <v>16712205.68512528</v>
+        <v>19625565.49610268</v>
       </c>
       <c r="L9" t="n">
-        <v>28066225.03863012</v>
+        <v>32481531.45461424</v>
       </c>
       <c r="M9" t="n">
         <v>41310857.35084911</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>43965544.32439024</v>
+        <v>43965544.32439025</v>
       </c>
       <c r="V9" t="n">
-        <v>2313976.017073173</v>
+        <v>2313976.017073172</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1482,25 +1482,25 @@
         <v>19377413052372.5</v>
       </c>
       <c r="F10" t="n">
-        <v>55022303.79247083</v>
+        <v>55000830.36630861</v>
       </c>
       <c r="G10" t="n">
         <v>355901922.1139563</v>
       </c>
       <c r="H10" t="n">
-        <v>28653422.27984875</v>
+        <v>18122970.47563068</v>
       </c>
       <c r="I10" t="n">
-        <v>12218001.87513185</v>
+        <v>13698285.8398837</v>
       </c>
       <c r="J10" t="n">
-        <v>18906925.8704582</v>
+        <v>12733416.9291888</v>
       </c>
       <c r="K10" t="n">
-        <v>15977399.54777956</v>
+        <v>17780060.26029595</v>
       </c>
       <c r="L10" t="n">
-        <v>13219730.95527069</v>
+        <v>26640747.02348992</v>
       </c>
       <c r="M10" t="n">
         <v>41310857.35084911</v>
@@ -1530,7 +1530,7 @@
         <v>36439755.0804878</v>
       </c>
       <c r="V10" t="n">
-        <v>1917881.846341465</v>
+        <v>1917881.846341464</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1580,25 +1580,25 @@
         <v>13964126052372.5</v>
       </c>
       <c r="F11" t="n">
-        <v>55157615.51562389</v>
+        <v>55418053.8302884</v>
       </c>
       <c r="G11" t="n">
         <v>355901922.1139563</v>
       </c>
       <c r="H11" t="n">
-        <v>18428209.67546165</v>
+        <v>22430603.7042232</v>
       </c>
       <c r="I11" t="n">
-        <v>6844939.514878429</v>
+        <v>9656444.514381299</v>
       </c>
       <c r="J11" t="n">
-        <v>18667649.17495907</v>
+        <v>15935363.63012704</v>
       </c>
       <c r="K11" t="n">
-        <v>16579471.69742018</v>
+        <v>11314892.43710901</v>
       </c>
       <c r="L11" t="n">
-        <v>28455210.46576977</v>
+        <v>29638176.24264861</v>
       </c>
       <c r="M11" t="n">
         <v>41310857.35084911</v>
@@ -1628,7 +1628,7 @@
         <v>36439755.0804878</v>
       </c>
       <c r="V11" t="n">
-        <v>1917881.846341465</v>
+        <v>1917881.846341464</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>22787269156100</v>
       </c>
       <c r="F12" t="n">
-        <v>44014234.24378094</v>
+        <v>43473889.17703162</v>
       </c>
       <c r="G12" t="n">
         <v>304166351.3551875</v>
       </c>
       <c r="H12" t="n">
-        <v>23410345.8430236</v>
+        <v>17986356.45043655</v>
       </c>
       <c r="I12" t="n">
-        <v>7141448.910411851</v>
+        <v>7390426.259739091</v>
       </c>
       <c r="J12" t="n">
-        <v>10387532.67142882</v>
+        <v>11297432.26840838</v>
       </c>
       <c r="K12" t="n">
-        <v>8884775.220362291</v>
+        <v>11594587.46558143</v>
       </c>
       <c r="L12" t="n">
-        <v>26217485.19357031</v>
+        <v>27772785.39463142</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1776,25 +1776,25 @@
         <v>21657857007500</v>
       </c>
       <c r="F13" t="n">
-        <v>34648214.38823247</v>
+        <v>34673407.60868787</v>
       </c>
       <c r="G13" t="n">
         <v>243092507.5577203</v>
       </c>
       <c r="H13" t="n">
-        <v>17390426.60439287</v>
+        <v>15418816.6028579</v>
       </c>
       <c r="I13" t="n">
-        <v>5013176.467474164</v>
+        <v>9485069.968554758</v>
       </c>
       <c r="J13" t="n">
-        <v>11959970.4204235</v>
+        <v>6411977.591236254</v>
       </c>
       <c r="K13" t="n">
-        <v>8521333.217773885</v>
+        <v>5851777.808442632</v>
       </c>
       <c r="L13" t="n">
-        <v>17888220.17936565</v>
+        <v>23605484.91833852</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>24889529.63414634</v>
       </c>
       <c r="V13" t="n">
-        <v>1309975.24390244</v>
+        <v>1309975.243902439</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1874,25 +1874,25 @@
         <v>22163183889100</v>
       </c>
       <c r="F14" t="n">
-        <v>26267747.78768737</v>
+        <v>26697008.11971827</v>
       </c>
       <c r="G14" t="n">
         <v>189701399.3710952</v>
       </c>
       <c r="H14" t="n">
-        <v>9060352.61114672</v>
+        <v>8996976.674006376</v>
       </c>
       <c r="I14" t="n">
-        <v>7141448.91041185</v>
+        <v>5046805.201596184</v>
       </c>
       <c r="J14" t="n">
-        <v>9238032.824673863</v>
+        <v>8403150.210810903</v>
       </c>
       <c r="K14" t="n">
-        <v>4159539.654507504</v>
+        <v>5577094.230565951</v>
       </c>
       <c r="L14" t="n">
-        <v>17825975.84203384</v>
+        <v>19401323.52579438</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>19422970.49268293</v>
       </c>
       <c r="V14" t="n">
-        <v>1022261.60487805</v>
+        <v>1022261.604878049</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1972,25 +1972,25 @@
         <v>18231097489100</v>
       </c>
       <c r="F15" t="n">
-        <v>26580789.50654428</v>
+        <v>26999973.02162843</v>
       </c>
       <c r="G15" t="n">
         <v>189701399.3710952</v>
       </c>
       <c r="H15" t="n">
-        <v>12072010.00357856</v>
+        <v>13000178.18819473</v>
       </c>
       <c r="I15" t="n">
-        <v>9485069.968554758</v>
+        <v>5046805.201596184</v>
       </c>
       <c r="J15" t="n">
-        <v>6162999.495101683</v>
+        <v>8195398.866585535</v>
       </c>
       <c r="K15" t="n">
-        <v>1293389.268969255</v>
+        <v>3075033.329572182</v>
       </c>
       <c r="L15" t="n">
-        <v>18411881.10656957</v>
+        <v>18107934.25682515</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>19422970.49268293</v>
       </c>
       <c r="V15" t="n">
-        <v>1022261.60487805</v>
+        <v>1022261.604878049</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2070,25 +2070,25 @@
         <v>18231097489100</v>
       </c>
       <c r="F16" t="n">
-        <v>26567126.81727583</v>
+        <v>26692355.36068369</v>
       </c>
       <c r="G16" t="n">
         <v>189701399.3710952</v>
       </c>
       <c r="H16" t="n">
-        <v>12072010.00357856</v>
+        <v>11700646.05552307</v>
       </c>
       <c r="I16" t="n">
-        <v>6959080.8005652</v>
+        <v>4438264.766958573</v>
       </c>
       <c r="J16" t="n">
-        <v>8781304.131121265</v>
+        <v>10285354.6790817</v>
       </c>
       <c r="K16" t="n">
-        <v>6162999.495101681</v>
+        <v>8622864.288270399</v>
       </c>
       <c r="L16" t="n">
-        <v>13449955.41240708</v>
+        <v>12378220.05294007</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>19422970.49268293</v>
       </c>
       <c r="V16" t="n">
-        <v>1022261.60487805</v>
+        <v>1022261.604878049</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2168,25 +2168,25 @@
         <v>22623460923650</v>
       </c>
       <c r="F17" t="n">
-        <v>19365707.49853016</v>
+        <v>19978247.58081258</v>
       </c>
       <c r="G17" t="n">
         <v>142828978.208237</v>
       </c>
       <c r="H17" t="n">
-        <v>8898841.336444635</v>
+        <v>8192488.931819685</v>
       </c>
       <c r="I17" t="n">
-        <v>7141448.910411851</v>
+        <v>7141448.910411858</v>
       </c>
       <c r="J17" t="n">
-        <v>8926811.138014814</v>
+        <v>4463486.504251919</v>
       </c>
       <c r="K17" t="n">
-        <v>5205083.173958017</v>
+        <v>5661811.867510615</v>
       </c>
       <c r="L17" t="n">
-        <v>5535059.993229927</v>
+        <v>10248008.33806518</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>14623840.61707317</v>
       </c>
       <c r="V17" t="n">
-        <v>769675.8219512203</v>
+        <v>769675.8219512193</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2266,25 +2266,25 @@
         <v>19171455223650</v>
       </c>
       <c r="F18" t="n">
-        <v>19574529.06470993</v>
+        <v>19642386.79204212</v>
       </c>
       <c r="G18" t="n">
         <v>142828978.208237</v>
       </c>
       <c r="H18" t="n">
-        <v>9422502.263648555</v>
+        <v>5999063.150293504</v>
       </c>
       <c r="I18" t="n">
-        <v>6617787.983207932</v>
+        <v>4554670.372473411</v>
       </c>
       <c r="J18" t="n">
-        <v>8280116.503530201</v>
+        <v>8311804.472100375</v>
       </c>
       <c r="K18" t="n">
-        <v>5851777.808442632</v>
+        <v>6308506.50199523</v>
       </c>
       <c r="L18" t="n">
-        <v>5535059.993229927</v>
+        <v>10533200.05519673</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>14623840.61707317</v>
       </c>
       <c r="V18" t="n">
-        <v>769675.8219512203</v>
+        <v>769675.8219512193</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2364,25 +2364,25 @@
         <v>24019539099600</v>
       </c>
       <c r="F19" t="n">
-        <v>13349738.86171957</v>
+        <v>12854451.63936281</v>
       </c>
       <c r="G19" t="n">
-        <v>91093407.44946824</v>
+        <v>91093407.44946826</v>
       </c>
       <c r="H19" t="n">
-        <v>7970673.151828472</v>
+        <v>4305046.661401055</v>
       </c>
       <c r="I19" t="n">
-        <v>4554670.372473412</v>
+        <v>523660.9272039259</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5693337.965591766</v>
       </c>
       <c r="K19" t="n">
-        <v>3075033.329572182</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="L19" t="n">
-        <v>7172975.008492991</v>
+        <v>9633001.672150735</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>18014987.51040799</v>
       </c>
       <c r="U19" t="n">
-        <v>9326787.102439024</v>
+        <v>9326787.102439027</v>
       </c>
       <c r="V19" t="n">
-        <v>490883.5317073176</v>
+        <v>490883.5317073167</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2462,25 +2462,25 @@
         <v>20209377799600</v>
       </c>
       <c r="F20" t="n">
-        <v>13422667.33241554</v>
+        <v>13058583.3861942</v>
       </c>
       <c r="G20" t="n">
-        <v>91093407.44946826</v>
+        <v>91093407.44946824</v>
       </c>
       <c r="H20" t="n">
-        <v>4828707.588604972</v>
+        <v>4828707.588604981</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2460026.663657745</v>
       </c>
       <c r="J20" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="K20" t="n">
-        <v>5078331.299677327</v>
+        <v>5693337.965591766</v>
       </c>
       <c r="L20" t="n">
-        <v>10248008.33806517</v>
+        <v>7172975.008492991</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2507,10 +2507,10 @@
         <v>18014987.51040799</v>
       </c>
       <c r="U20" t="n">
-        <v>9326787.102439024</v>
+        <v>9326787.102439027</v>
       </c>
       <c r="V20" t="n">
-        <v>490883.5317073176</v>
+        <v>490883.5317073167</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2560,25 +2560,25 @@
         <v>24819906079300</v>
       </c>
       <c r="F21" t="n">
-        <v>5751891.624407821</v>
+        <v>5848245.235013344</v>
       </c>
       <c r="G21" t="n">
         <v>41892874.17631333</v>
       </c>
       <c r="H21" t="n">
-        <v>3665626.490427417</v>
+        <v>523660.9272039259</v>
       </c>
       <c r="I21" t="n">
-        <v>2094643.708815667</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="L21" t="n">
-        <v>2094643.708815665</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>18014987.51040799</v>
       </c>
       <c r="U21" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="V21" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2658,25 +2658,25 @@
         <v>21196442279300</v>
       </c>
       <c r="F22" t="n">
-        <v>5829393.441634</v>
+        <v>5502629.023058758</v>
       </c>
       <c r="G22" t="n">
         <v>41892874.17631333</v>
       </c>
       <c r="H22" t="n">
-        <v>3665626.490427417</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1570982.781611748</v>
+        <v>2094643.708815666</v>
       </c>
       <c r="J22" t="n">
         <v>2618304.636019584</v>
       </c>
       <c r="K22" t="n">
-        <v>2618304.636019583</v>
+        <v>1047321.854407842</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2703,10 +2703,10 @@
         <v>18014987.51040799</v>
       </c>
       <c r="U22" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="V22" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>867158074050</v>
       </c>
       <c r="E7" t="n">
-        <v>7442161.853648886</v>
+        <v>7486137.08879384</v>
       </c>
     </row>
     <row r="8">
@@ -4834,7 +4834,7 @@
         <v>867158074050</v>
       </c>
       <c r="E8" t="n">
-        <v>7103293.865178951</v>
+        <v>7581847.894697564</v>
       </c>
     </row>
     <row r="9">
@@ -4851,7 +4851,7 @@
         <v>867158074050</v>
       </c>
       <c r="E9" t="n">
-        <v>7059318.630033997</v>
+        <v>7103293.865178952</v>
       </c>
     </row>
     <row r="10">
@@ -5455,7 +5455,7 @@
         <v>4500422.59985658</v>
       </c>
       <c r="D6" t="n">
-        <v>2571670.057060902</v>
+        <v>2571670.057060903</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C7" t="n">
-        <v>3880167.806907654</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5508,10 +5508,10 @@
         <v>3233473.172423048</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3233473.172423048</v>
       </c>
       <c r="G7" t="n">
-        <v>5820251.710361486</v>
+        <v>1940083.903453823</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C8" t="n">
-        <v>4526862.441392267</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D8" t="n">
-        <v>2586778.537938439</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3233473.172423048</v>
+        <v>2586778.537938435</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2586778.537938434</v>
+        <v>5820251.710361484</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C9" t="n">
-        <v>3880167.806907654</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D9" t="n">
         <v>2586778.537938438</v>
@@ -5602,10 +5602,10 @@
         <v>3233473.172423048</v>
       </c>
       <c r="F9" t="n">
-        <v>3233473.172423048</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2586778.537938433</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>824667420300</v>
       </c>
       <c r="E6" t="n">
-        <v>6943224.472251708</v>
+        <v>6943224.472251709</v>
       </c>
     </row>
     <row r="7">
@@ -8066,7 +8066,7 @@
         <v>824667420300</v>
       </c>
       <c r="E7" t="n">
-        <v>6713412.765121987</v>
+        <v>7210338.151180851</v>
       </c>
     </row>
     <row r="8">
@@ -8083,7 +8083,7 @@
         <v>824667420300</v>
       </c>
       <c r="E8" t="n">
-        <v>6868394.444932425</v>
+        <v>6546130.951993261</v>
       </c>
     </row>
     <row r="9">
@@ -8100,7 +8100,7 @@
         <v>824667420300</v>
       </c>
       <c r="E9" t="n">
-        <v>7077496.711343333</v>
+        <v>7210338.151180851</v>
       </c>
     </row>
     <row r="10">
@@ -8117,7 +8117,7 @@
         <v>824667420300</v>
       </c>
       <c r="E10" t="n">
-        <v>6713412.765121987</v>
+        <v>7001235.884769944</v>
       </c>
     </row>
     <row r="11">
@@ -8134,7 +8134,7 @@
         <v>824667420300</v>
       </c>
       <c r="E11" t="n">
-        <v>6462490.045428897</v>
+        <v>7210338.151180852</v>
       </c>
     </row>
     <row r="12">
@@ -8151,7 +8151,7 @@
         <v>824667420300</v>
       </c>
       <c r="E12" t="n">
-        <v>7210338.151180851</v>
+        <v>6755233.218404168</v>
       </c>
     </row>
     <row r="13">
@@ -8168,7 +8168,7 @@
         <v>824667420300</v>
       </c>
       <c r="E13" t="n">
-        <v>7210338.151180852</v>
+        <v>6755233.218404168</v>
       </c>
     </row>
     <row r="14">
@@ -8185,7 +8185,7 @@
         <v>824667420300</v>
       </c>
       <c r="E14" t="n">
-        <v>6462490.045428897</v>
+        <v>6546130.951993261</v>
       </c>
     </row>
     <row r="15">
@@ -8202,7 +8202,7 @@
         <v>824667420300</v>
       </c>
       <c r="E15" t="n">
-        <v>7210338.151180851</v>
+        <v>7001235.884769944</v>
       </c>
     </row>
     <row r="16">
@@ -8219,7 +8219,7 @@
         <v>824667420300</v>
       </c>
       <c r="E16" t="n">
-        <v>7210338.151180852</v>
+        <v>7119317.164625519</v>
       </c>
     </row>
     <row r="17">
@@ -8236,7 +8236,7 @@
         <v>824667420300</v>
       </c>
       <c r="E17" t="n">
-        <v>6546130.951993261</v>
+        <v>6735553.005094907</v>
       </c>
     </row>
     <row r="18">
@@ -8253,7 +8253,7 @@
         <v>824667420300</v>
       </c>
       <c r="E18" t="n">
-        <v>6546130.951993261</v>
+        <v>6846254.204959505</v>
       </c>
     </row>
     <row r="19">
@@ -8270,7 +8270,7 @@
         <v>824667420300</v>
       </c>
       <c r="E19" t="n">
-        <v>7210338.151180851</v>
+        <v>7119317.164625515</v>
       </c>
     </row>
     <row r="20">
@@ -8287,7 +8287,7 @@
         <v>824667420300</v>
       </c>
       <c r="E20" t="n">
-        <v>7574422.097402198</v>
+        <v>7210338.151180851</v>
       </c>
     </row>
     <row r="21">
@@ -8560,7 +8560,7 @@
         <v>55996726.50692253</v>
       </c>
       <c r="C3" t="n">
-        <v>4666393.875576876</v>
+        <v>4666393.875576877</v>
       </c>
       <c r="D3" t="n">
         <v>2666510.786043929</v>
@@ -8701,7 +8701,7 @@
         <v>51358828.43159065</v>
       </c>
       <c r="C6" t="n">
-        <v>4279902.369299221</v>
+        <v>4279902.369299222</v>
       </c>
       <c r="D6" t="n">
         <v>2445658.496742412</v>
@@ -8748,19 +8748,19 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C7" t="n">
-        <v>3690039.995486616</v>
+        <v>4305046.661401055</v>
       </c>
       <c r="D7" t="n">
         <v>2460026.663657745</v>
       </c>
       <c r="E7" t="n">
-        <v>3075033.329572182</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>3075033.329572182</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2460026.663657743</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -8795,19 +8795,19 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C8" t="n">
-        <v>615006.665914434</v>
+        <v>1230013.331828871</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2460026.663657745</v>
       </c>
       <c r="E8" t="n">
         <v>3075033.329572182</v>
       </c>
       <c r="F8" t="n">
-        <v>3075033.329572182</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5535059.993229926</v>
+        <v>5535059.993229927</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -8842,19 +8842,19 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C9" t="n">
-        <v>3690039.995486616</v>
+        <v>4305046.661401055</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2460026.663657745</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3075033.329572182</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>5535059.993229926</v>
+        <v>2460026.663657743</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -8889,19 +8889,19 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C10" t="n">
-        <v>3690039.995486616</v>
+        <v>1230013.331828871</v>
       </c>
       <c r="D10" t="n">
         <v>2460026.663657745</v>
       </c>
       <c r="E10" t="n">
-        <v>3075033.329572182</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>3075033.329572182</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5535059.993229927</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -8936,16 +8936,16 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4305046.661401055</v>
       </c>
       <c r="D11" t="n">
-        <v>2460026.663657745</v>
+        <v>2460026.663657743</v>
       </c>
       <c r="E11" t="n">
-        <v>3075033.329572182</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1230013.331828871</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>5535059.993229927</v>
@@ -8989,13 +8989,13 @@
         <v>2460026.663657745</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3075033.329572182</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5535059.993229925</v>
+        <v>2460026.663657743</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -9033,16 +9033,16 @@
         <v>4305046.661401055</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2460026.663657745</v>
       </c>
       <c r="E13" t="n">
+        <v>3075033.329572182</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2460026.663657743</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5535059.993229927</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1230013.331828871</v>
       </c>
       <c r="D14" t="n">
         <v>2460026.663657745</v>
@@ -9086,7 +9086,7 @@
         <v>3075033.329572182</v>
       </c>
       <c r="F14" t="n">
-        <v>1230013.331828871</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>5535059.993229927</v>
@@ -9124,7 +9124,7 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C15" t="n">
-        <v>4305046.661401053</v>
+        <v>1230013.331828871</v>
       </c>
       <c r="D15" t="n">
         <v>2460026.663657745</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3075033.329572182</v>
       </c>
       <c r="G15" t="n">
         <v>5535059.993229927</v>
@@ -9168,22 +9168,22 @@
         <v>2039</v>
       </c>
       <c r="B16" t="n">
-        <v>49200533.27315491</v>
+        <v>49200533.27315488</v>
       </c>
       <c r="C16" t="n">
         <v>4305046.661401055</v>
       </c>
       <c r="D16" t="n">
-        <v>2460026.663657743</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3075033.329572182</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3075033.329572182</v>
       </c>
       <c r="G16" t="n">
-        <v>5535059.993229927</v>
+        <v>1845019.997743338</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -9218,16 +9218,16 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C17" t="n">
-        <v>1230013.331828871</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>2460026.663657745</v>
       </c>
       <c r="E17" t="n">
+        <v>1230013.331828871</v>
+      </c>
+      <c r="F17" t="n">
         <v>3075033.329572182</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>5535059.993229927</v>
@@ -9265,19 +9265,19 @@
         <v>49200533.27315491</v>
       </c>
       <c r="C18" t="n">
-        <v>1230013.331828871</v>
+        <v>4305046.661401055</v>
       </c>
       <c r="D18" t="n">
         <v>2460026.663657745</v>
       </c>
       <c r="E18" t="n">
+        <v>2460026.663657743</v>
+      </c>
+      <c r="F18" t="n">
         <v>3075033.329572182</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
-        <v>5535059.993229927</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -9315,16 +9315,16 @@
         <v>4305046.661401055</v>
       </c>
       <c r="D19" t="n">
-        <v>2460026.663657746</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3075033.329572182</v>
       </c>
       <c r="F19" t="n">
-        <v>3075033.329572182</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2460026.663657743</v>
+        <v>4920053.327315487</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -9362,16 +9362,16 @@
         <v>4305046.661401055</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2460026.663657745</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>3075033.329572182</v>
+      </c>
+      <c r="G20" t="n">
         <v>2460026.663657743</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5535059.993229927</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -12831,7 +12831,7 @@
         <v>720298257750</v>
       </c>
       <c r="E4" t="n">
-        <v>6064496.265307438</v>
+        <v>6064496.265307437</v>
       </c>
     </row>
     <row r="5">
@@ -12848,7 +12848,7 @@
         <v>720298257750</v>
       </c>
       <c r="E5" t="n">
-        <v>6064496.265307438</v>
+        <v>6064496.265307437</v>
       </c>
     </row>
     <row r="6">
@@ -12865,7 +12865,7 @@
         <v>702181179300</v>
       </c>
       <c r="E6" t="n">
-        <v>5911960.904550754</v>
+        <v>5911960.904550753</v>
       </c>
     </row>
     <row r="7">
@@ -12882,7 +12882,7 @@
         <v>702181179300</v>
       </c>
       <c r="E7" t="n">
-        <v>5502629.023058756</v>
+        <v>5735134.474737296</v>
       </c>
     </row>
     <row r="8">
@@ -12899,7 +12899,7 @@
         <v>702181179300</v>
       </c>
       <c r="E8" t="n">
-        <v>5961355.995289387</v>
+        <v>6026289.950262675</v>
       </c>
     </row>
     <row r="9">
@@ -12916,7 +12916,7 @@
         <v>702181179300</v>
       </c>
       <c r="E9" t="n">
-        <v>6061898.893312539</v>
+        <v>6139400.710538721</v>
       </c>
     </row>
     <row r="10">
@@ -12933,7 +12933,7 @@
         <v>702181179300</v>
       </c>
       <c r="E10" t="n">
-        <v>5716282.681357954</v>
+        <v>6413799.036393574</v>
       </c>
     </row>
     <row r="11">
@@ -12950,7 +12950,7 @@
         <v>702181179300</v>
       </c>
       <c r="E11" t="n">
-        <v>5716282.681357954</v>
+        <v>6026289.950262675</v>
       </c>
     </row>
     <row r="12">
@@ -12967,7 +12967,7 @@
         <v>702181179300</v>
       </c>
       <c r="E12" t="n">
-        <v>5961355.995289387</v>
+        <v>6449407.979443439</v>
       </c>
     </row>
     <row r="13">
@@ -12984,7 +12984,7 @@
         <v>702181179300</v>
       </c>
       <c r="E13" t="n">
-        <v>6449407.979443438</v>
+        <v>5961355.99528939</v>
       </c>
     </row>
     <row r="14">
@@ -13001,7 +13001,7 @@
         <v>702181179300</v>
       </c>
       <c r="E14" t="n">
-        <v>6139400.710538719</v>
+        <v>6139400.71053872</v>
       </c>
     </row>
     <row r="15">
@@ -13018,7 +13018,7 @@
         <v>702181179300</v>
       </c>
       <c r="E15" t="n">
-        <v>6139400.710538719</v>
+        <v>6026289.950262675</v>
       </c>
     </row>
     <row r="16">
@@ -13035,7 +13035,7 @@
         <v>702181179300</v>
       </c>
       <c r="E16" t="n">
-        <v>5751891.624407821</v>
+        <v>5735134.474737296</v>
       </c>
     </row>
     <row r="17">
@@ -13052,7 +13052,7 @@
         <v>702181179300</v>
       </c>
       <c r="E17" t="n">
-        <v>5716282.681357954</v>
+        <v>6139400.71053872</v>
       </c>
     </row>
     <row r="18">
@@ -13069,7 +13069,7 @@
         <v>702181179300</v>
       </c>
       <c r="E18" t="n">
-        <v>5829393.441634</v>
+        <v>5573846.909158492</v>
       </c>
     </row>
     <row r="19">
@@ -13086,7 +13086,7 @@
         <v>702181179300</v>
       </c>
       <c r="E19" t="n">
-        <v>6139400.710538719</v>
+        <v>5735134.474737296</v>
       </c>
     </row>
     <row r="20">
@@ -13103,7 +13103,7 @@
         <v>702181179300</v>
       </c>
       <c r="E20" t="n">
-        <v>5848245.235013342</v>
+        <v>5848245.235013344</v>
       </c>
     </row>
     <row r="21">
@@ -13120,7 +13120,7 @@
         <v>702181179300</v>
       </c>
       <c r="E21" t="n">
-        <v>5751891.624407821</v>
+        <v>5848245.235013344</v>
       </c>
     </row>
     <row r="22">
@@ -13137,7 +13137,7 @@
         <v>702181179300</v>
       </c>
       <c r="E22" t="n">
-        <v>5829393.441634</v>
+        <v>5502629.023058758</v>
       </c>
     </row>
     <row r="23">
@@ -13373,19 +13373,19 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>47679658.38080691</v>
+        <v>47679658.38080689</v>
       </c>
       <c r="C3" t="n">
-        <v>3973304.865067243</v>
+        <v>3973304.865067248</v>
       </c>
       <c r="D3" t="n">
-        <v>2270459.922895567</v>
+        <v>2270459.92289557</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2838074.903619459</v>
+        <v>2838074.903619463</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -13420,10 +13420,10 @@
         <v>2027</v>
       </c>
       <c r="B4" t="n">
-        <v>44858901.57501099</v>
+        <v>44858901.57501098</v>
       </c>
       <c r="C4" t="n">
-        <v>3738241.797917583</v>
+        <v>3738241.79791758</v>
       </c>
       <c r="D4" t="n">
         <v>2136138.170238618</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2670172.712798273</v>
+        <v>2670172.712798275</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -13467,10 +13467,10 @@
         <v>2028</v>
       </c>
       <c r="B5" t="n">
-        <v>44858901.57501099</v>
+        <v>44858901.57501098</v>
       </c>
       <c r="C5" t="n">
-        <v>3738241.797917583</v>
+        <v>3738241.79791758</v>
       </c>
       <c r="D5" t="n">
         <v>2136138.170238618</v>
@@ -13479,7 +13479,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2670172.712798273</v>
+        <v>2670172.712798275</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -13517,10 +13517,10 @@
         <v>43730601.97096366</v>
       </c>
       <c r="C6" t="n">
-        <v>3644216.830913639</v>
+        <v>3644216.830913636</v>
       </c>
       <c r="D6" t="n">
-        <v>2082409.617664936</v>
+        <v>2082409.617664938</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -13567,16 +13567,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2094643.708815667</v>
+        <v>2094643.708815666</v>
       </c>
       <c r="E7" t="n">
-        <v>2618304.636019583</v>
+        <v>1047321.854407842</v>
       </c>
       <c r="F7" t="n">
-        <v>1047321.854407834</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="G7" t="n">
-        <v>4712948.344835248</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -13611,19 +13611,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C8" t="n">
-        <v>1047321.854407834</v>
+        <v>3141965.563223506</v>
       </c>
       <c r="D8" t="n">
-        <v>2094643.708815667</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="F8" t="n">
-        <v>2618304.636019583</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4712948.344835248</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -13658,19 +13658,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C9" t="n">
-        <v>3665626.490427417</v>
+        <v>3665626.490427422</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2094643.708815666</v>
       </c>
       <c r="E9" t="n">
-        <v>2618304.636019584</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2618304.636019583</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1570982.781611748</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -13705,19 +13705,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C10" t="n">
-        <v>3141965.563223498</v>
+        <v>3141965.563223506</v>
       </c>
       <c r="D10" t="n">
-        <v>2094643.708815667</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2618304.636019583</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -13752,19 +13752,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C11" t="n">
-        <v>3141965.563223498</v>
+        <v>3141965.563223506</v>
       </c>
       <c r="D11" t="n">
-        <v>2094643.708815667</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="F11" t="n">
-        <v>2618304.636019583</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -13799,19 +13799,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C12" t="n">
-        <v>1047321.854407834</v>
+        <v>3665626.490427417</v>
       </c>
       <c r="D12" t="n">
-        <v>2094643.708815667</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2618304.636019583</v>
+        <v>2094643.708815674</v>
       </c>
       <c r="G12" t="n">
-        <v>4712948.344835248</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -13846,19 +13846,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C13" t="n">
-        <v>3665626.490427417</v>
+        <v>1047321.854407842</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2094643.708815666</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="G13" t="n">
-        <v>4189287.417631332</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -13896,16 +13896,16 @@
         <v>3665626.490427417</v>
       </c>
       <c r="D14" t="n">
-        <v>2094643.708815666</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2094643.708815674</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4712948.344835247</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -13940,19 +13940,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C15" t="n">
-        <v>3665626.490427417</v>
+        <v>3141965.563223506</v>
       </c>
       <c r="D15" t="n">
-        <v>2094643.708815666</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4712948.344835247</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -13987,19 +13987,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C16" t="n">
-        <v>3665626.490427417</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2094643.708815667</v>
+        <v>2094643.708815666</v>
       </c>
       <c r="E16" t="n">
-        <v>2618304.636019583</v>
+        <v>1047321.854407842</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="G16" t="n">
-        <v>2094643.708815665</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -14034,19 +14034,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C17" t="n">
-        <v>3141965.563223498</v>
+        <v>3665626.490427417</v>
       </c>
       <c r="D17" t="n">
-        <v>2094643.708815667</v>
+        <v>2094643.708815674</v>
       </c>
       <c r="E17" t="n">
-        <v>2618304.636019583</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2618304.636019583</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -14081,19 +14081,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C18" t="n">
-        <v>3665626.490427417</v>
+        <v>1047321.854407842</v>
       </c>
       <c r="D18" t="n">
-        <v>1570982.781611748</v>
+        <v>2094643.708815666</v>
       </c>
       <c r="E18" t="n">
         <v>2618304.636019584</v>
       </c>
       <c r="F18" t="n">
-        <v>2618304.636019583</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -14128,19 +14128,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C19" t="n">
-        <v>3665626.490427417</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2094643.708815667</v>
+        <v>523660.9272039259</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="G19" t="n">
-        <v>4712948.344835248</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -14175,19 +14175,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C20" t="n">
-        <v>523660.9272039169</v>
+        <v>523660.9272039259</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="F20" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="G20" t="n">
-        <v>4712948.344835248</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -14222,19 +14222,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C21" t="n">
-        <v>3665626.490427417</v>
+        <v>523660.9272039259</v>
       </c>
       <c r="D21" t="n">
-        <v>2094643.708815667</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2618304.636019583</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2618304.636019584</v>
       </c>
       <c r="G21" t="n">
-        <v>2094643.708815665</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -14269,19 +14269,19 @@
         <v>41892874.17631333</v>
       </c>
       <c r="C22" t="n">
-        <v>3665626.490427417</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1570982.781611748</v>
+        <v>2094643.708815666</v>
       </c>
       <c r="E22" t="n">
         <v>2618304.636019584</v>
       </c>
       <c r="F22" t="n">
-        <v>2618304.636019583</v>
+        <v>1047321.854407842</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4712948.344835249</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>4676629.368292683</v>
       </c>
       <c r="C3" t="n">
-        <v>246138.3878048783</v>
+        <v>246138.3878048776</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -14675,7 +14675,7 @@
         <v>4399957.207317073</v>
       </c>
       <c r="C4" t="n">
-        <v>231576.6951219515</v>
+        <v>231576.695121951</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -14704,7 +14704,7 @@
         <v>4399957.207317073</v>
       </c>
       <c r="C5" t="n">
-        <v>231576.6951219515</v>
+        <v>231576.695121951</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -14730,10 +14730,10 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C6" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -14759,10 +14759,10 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C7" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -14788,10 +14788,10 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C8" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -14817,10 +14817,10 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C9" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -14846,10 +14846,10 @@
         <v>2033</v>
       </c>
       <c r="B10" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C10" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -14875,10 +14875,10 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C11" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -14904,10 +14904,10 @@
         <v>2035</v>
       </c>
       <c r="B12" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C12" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -14933,10 +14933,10 @@
         <v>2036</v>
       </c>
       <c r="B13" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C13" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -14962,10 +14962,10 @@
         <v>2037</v>
       </c>
       <c r="B14" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C14" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -14991,10 +14991,10 @@
         <v>2038</v>
       </c>
       <c r="B15" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C15" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -15020,10 +15020,10 @@
         <v>2039</v>
       </c>
       <c r="B16" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C16" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -15049,10 +15049,10 @@
         <v>2040</v>
       </c>
       <c r="B17" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C17" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -15078,10 +15078,10 @@
         <v>2041</v>
       </c>
       <c r="B18" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C18" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -15107,10 +15107,10 @@
         <v>2042</v>
       </c>
       <c r="B19" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C19" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -15136,10 +15136,10 @@
         <v>2043</v>
       </c>
       <c r="B20" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C20" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -15165,10 +15165,10 @@
         <v>2044</v>
       </c>
       <c r="B21" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C21" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -15194,10 +15194,10 @@
         <v>2045</v>
       </c>
       <c r="B22" t="n">
-        <v>4289288.648780487</v>
+        <v>4289288.64878049</v>
       </c>
       <c r="C22" t="n">
-        <v>225752.0341463417</v>
+        <v>225752.0341463409</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -16063,7 +16063,7 @@
         <v>397804647900</v>
       </c>
       <c r="E3" t="n">
-        <v>3349285.904213324</v>
+        <v>3349285.904213323</v>
       </c>
     </row>
     <row r="4">
@@ -16131,7 +16131,7 @@
         <v>364856835450</v>
       </c>
       <c r="E7" t="n">
-        <v>3332641.90014843</v>
+        <v>3190063.164381141</v>
       </c>
     </row>
     <row r="8">
@@ -16148,7 +16148,7 @@
         <v>364856835450</v>
       </c>
       <c r="E8" t="n">
-        <v>3190063.164381139</v>
+        <v>3131290.250400729</v>
       </c>
     </row>
     <row r="9">
@@ -16165,7 +16165,7 @@
         <v>364856835450</v>
       </c>
       <c r="E9" t="n">
-        <v>3038777.330246381</v>
+        <v>3190063.164381139</v>
       </c>
     </row>
     <row r="10">
@@ -16775,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1352538.001604683</v>
+        <v>1352538.001604682</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -16810,13 +16810,13 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>21767745.91867035</v>
+        <v>21767745.91867033</v>
       </c>
       <c r="C7" t="n">
-        <v>1632580.943900274</v>
+        <v>1904677.767883656</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1088387.295933518</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -16825,7 +16825,7 @@
         <v>1360484.119916897</v>
       </c>
       <c r="G7" t="n">
-        <v>2448871.415850414</v>
+        <v>1088387.295933533</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -16860,19 +16860,19 @@
         <v>21767745.91867035</v>
       </c>
       <c r="C8" t="n">
-        <v>1904677.767883656</v>
+        <v>1632580.943900275</v>
       </c>
       <c r="D8" t="n">
-        <v>1088387.295933517</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1360484.119916897</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2448871.415850412</v>
+        <v>2448871.415850414</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -16907,16 +16907,16 @@
         <v>21767745.91867035</v>
       </c>
       <c r="C9" t="n">
-        <v>272096.8239833773</v>
+        <v>1904677.767883654</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1088387.295933518</v>
       </c>
       <c r="E9" t="n">
-        <v>1360484.119916897</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1360484.119916897</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2448871.415850414</v>
@@ -19312,7 +19312,7 @@
         <v>1116122386800</v>
       </c>
       <c r="E3" t="n">
-        <v>9397107.342058701</v>
+        <v>9397107.34205872</v>
       </c>
     </row>
     <row r="4">
@@ -19380,7 +19380,7 @@
         <v>1023680148600</v>
       </c>
       <c r="E7" t="n">
-        <v>8950371.808518823</v>
+        <v>8125874.917253016</v>
       </c>
     </row>
     <row r="8">
@@ -19397,7 +19397,7 @@
         <v>1023680148600</v>
       </c>
       <c r="E8" t="n">
-        <v>8690807.972379588</v>
+        <v>8950371.808518823</v>
       </c>
     </row>
     <row r="9">
@@ -19414,7 +19414,7 @@
         <v>1023680148600</v>
       </c>
       <c r="E9" t="n">
-        <v>8950371.808518823</v>
+        <v>8690807.972379588</v>
       </c>
     </row>
     <row r="10">
@@ -19431,7 +19431,7 @@
         <v>1023680148600</v>
       </c>
       <c r="E10" t="n">
-        <v>8333525.986164403</v>
+        <v>8950371.808518823</v>
       </c>
     </row>
     <row r="11">
@@ -19448,7 +19448,7 @@
         <v>1023680148600</v>
       </c>
       <c r="E11" t="n">
-        <v>8498425.364417566</v>
+        <v>8837385.19749351</v>
       </c>
     </row>
     <row r="12">
@@ -19871,10 +19871,10 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>69510128.27870132</v>
+        <v>69510128.27870125</v>
       </c>
       <c r="C3" t="n">
-        <v>5792510.689891717</v>
+        <v>5792510.689891821</v>
       </c>
       <c r="D3" t="n">
         <v>3310006.108509585</v>
@@ -19930,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3892731.711012131</v>
+        <v>3892731.71101213</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3892731.711012131</v>
+        <v>3892731.71101213</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3794820.784328076</v>
+        <v>3794820.784328075</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -20062,19 +20062,19 @@
         <v>61073843.79746724</v>
       </c>
       <c r="C7" t="n">
-        <v>5343961.332278379</v>
+        <v>1526846.09493668</v>
       </c>
       <c r="D7" t="n">
         <v>3053692.189873362</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3817115.237341702</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6870807.427215064</v>
+        <v>6870807.427215061</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -20109,19 +20109,19 @@
         <v>61073843.79746724</v>
       </c>
       <c r="C8" t="n">
-        <v>1526846.094936677</v>
+        <v>5343961.332278384</v>
       </c>
       <c r="D8" t="n">
-        <v>3053692.189873362</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3053692.18987336</v>
       </c>
       <c r="F8" t="n">
-        <v>3817115.237341702</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6870807.427215064</v>
+        <v>6870807.427215062</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -20156,7 +20156,7 @@
         <v>61073843.79746724</v>
       </c>
       <c r="C9" t="n">
-        <v>5343961.332278384</v>
+        <v>1526846.09493668</v>
       </c>
       <c r="D9" t="n">
         <v>3053692.189873362</v>
@@ -20165,10 +20165,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3817115.237341702</v>
       </c>
       <c r="G9" t="n">
-        <v>6870807.427215058</v>
+        <v>6870807.427215061</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -20203,19 +20203,19 @@
         <v>61073843.79746724</v>
       </c>
       <c r="C10" t="n">
-        <v>4580538.284810038</v>
+        <v>5343961.332278384</v>
       </c>
       <c r="D10" t="n">
-        <v>3053692.189873361</v>
+        <v>3053692.18987336</v>
       </c>
       <c r="E10" t="n">
-        <v>3817115.237341702</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3817115.237341702</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6870807.427215062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -20247,13 +20247,13 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>61073843.79746724</v>
+        <v>61073843.79746722</v>
       </c>
       <c r="C11" t="n">
         <v>5343961.332278384</v>
       </c>
       <c r="D11" t="n">
-        <v>2290269.142405016</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>3817115.237341702</v>
@@ -20262,7 +20262,7 @@
         <v>3817115.237341702</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2290269.14240503</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -20297,7 +20297,7 @@
         <v>61073843.79746724</v>
       </c>
       <c r="C12" t="n">
-        <v>5343961.332278383</v>
+        <v>5343961.332278384</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -21068,32 +21068,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Discounted CAPEX</t>
+          <t>Discounted Annualized CAPEX</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Discounted Renewal</t>
+          <t>Discounted OPEX</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Discounted OPEX</t>
+          <t>Discounted Fuel Cost</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Discounted Fuel Cost</t>
+          <t>Discounted Feedstock Cost</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Discounted Feedstock Cost</t>
+          <t>Total Discounted Cost</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total Discounted Cost</t>
+          <t>Discounted Cost per Ton ($/ton)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -21122,28 +21122,28 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>11360532510000</v>
+        <v>1170110.416911262</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11085222615000</v>
       </c>
       <c r="D2" t="n">
-        <v>11085222615000</v>
+        <v>7059728060636.34</v>
       </c>
       <c r="E2" t="n">
-        <v>7059728060636.34</v>
+        <v>11024214210240</v>
       </c>
       <c r="F2" t="n">
-        <v>11024214210240</v>
+        <v>29169166055986.76</v>
       </c>
       <c r="G2" t="n">
-        <v>40529697395876.34</v>
+        <v>651708.4332630314</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40529697395876.34</v>
+        <v>29169166055986.76</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -21157,34 +21157,34 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>588235294117.6471</v>
+        <v>21582.35294117647</v>
       </c>
       <c r="C3" t="n">
-        <v>600463591411.7646</v>
+        <v>10554948131036.76</v>
       </c>
       <c r="D3" t="n">
-        <v>10554948131036.76</v>
+        <v>7107571652973.056</v>
       </c>
       <c r="E3" t="n">
-        <v>7107571652973.058</v>
+        <v>11098649291991</v>
       </c>
       <c r="F3" t="n">
-        <v>11098649291991</v>
+        <v>28761169097583.17</v>
       </c>
       <c r="G3" t="n">
-        <v>29949867961530.23</v>
+        <v>642592.8124041103</v>
       </c>
       <c r="H3" t="n">
-        <v>2269555.019807234</v>
+        <v>2269555.01980722</v>
       </c>
       <c r="I3" t="n">
-        <v>70479565357406.58</v>
+        <v>57930335153569.92</v>
       </c>
       <c r="J3" t="n">
-        <v>2269555.019807234</v>
+        <v>2269555.01980722</v>
       </c>
       <c r="K3" t="n">
-        <v>31054354.15414286</v>
+        <v>25524975.0052284</v>
       </c>
     </row>
     <row r="4">
@@ -21192,34 +21192,34 @@
         <v>2027</v>
       </c>
       <c r="B4" t="n">
-        <v>576701268742.7913</v>
+        <v>32693.19492502884</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10041206925194.64</v>
       </c>
       <c r="D4" t="n">
-        <v>10041206925194.64</v>
+        <v>7356867061266.437</v>
       </c>
       <c r="E4" t="n">
-        <v>7356867061266.437</v>
+        <v>11362292691966.08</v>
       </c>
       <c r="F4" t="n">
-        <v>11362292691966.08</v>
+        <v>28760366711120.34</v>
       </c>
       <c r="G4" t="n">
-        <v>29337067947169.94</v>
+        <v>642574.885185226</v>
       </c>
       <c r="H4" t="n">
         <v>7485978.628782958</v>
       </c>
       <c r="I4" t="n">
-        <v>99816633304576.52</v>
+        <v>86690701864690.27</v>
       </c>
       <c r="J4" t="n">
-        <v>9755533.648590192</v>
+        <v>9755533.648590177</v>
       </c>
       <c r="K4" t="n">
-        <v>10231796.32197787</v>
+        <v>8886310.578941869</v>
       </c>
     </row>
     <row r="5">
@@ -21227,34 +21227,34 @@
         <v>2028</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>32052.15188728317</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9844320514896.701</v>
       </c>
       <c r="D5" t="n">
-        <v>9844320514896.701</v>
+        <v>7269962645070.9</v>
       </c>
       <c r="E5" t="n">
-        <v>7269962645070.9</v>
+        <v>11139502639182.43</v>
       </c>
       <c r="F5" t="n">
-        <v>11139502639182.43</v>
+        <v>28253785831202.18</v>
       </c>
       <c r="G5" t="n">
-        <v>28253785799150.03</v>
+        <v>631256.6654274584</v>
       </c>
       <c r="H5" t="n">
         <v>7485978.628782958</v>
       </c>
       <c r="I5" t="n">
-        <v>128070419103726.5</v>
+        <v>114944487695892.4</v>
       </c>
       <c r="J5" t="n">
-        <v>17241512.27737315</v>
+        <v>17241512.27737314</v>
       </c>
       <c r="K5" t="n">
-        <v>7428027.02242073</v>
+        <v>6666728.871964416</v>
       </c>
     </row>
     <row r="6">
@@ -21262,34 +21262,34 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>221722902246.3634</v>
+        <v>42509.82343318402</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9533347042619.742</v>
       </c>
       <c r="D6" t="n">
-        <v>9533347042619.742</v>
+        <v>7347440621690.002</v>
       </c>
       <c r="E6" t="n">
-        <v>7347440621690.002</v>
+        <v>11106111352147.01</v>
       </c>
       <c r="F6" t="n">
-        <v>11106111352147.01</v>
+        <v>27986899058966.58</v>
       </c>
       <c r="G6" t="n">
-        <v>28208621918703.12</v>
+        <v>625293.7812003794</v>
       </c>
       <c r="H6" t="n">
         <v>9572548.786473483</v>
       </c>
       <c r="I6" t="n">
-        <v>156279041022429.7</v>
+        <v>142931386754859</v>
       </c>
       <c r="J6" t="n">
-        <v>26814061.06384663</v>
+        <v>26814061.06384662</v>
       </c>
       <c r="K6" t="n">
-        <v>5828249.613153172</v>
+        <v>5330463.983599012</v>
       </c>
     </row>
     <row r="7">
@@ -21297,34 +21297,34 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>7215999931263.002</v>
+        <v>141306.6865648045</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11312122650510.46</v>
       </c>
       <c r="D7" t="n">
-        <v>11312122650510.46</v>
+        <v>13574126888060.42</v>
       </c>
       <c r="E7" t="n">
-        <v>13574126888060.42</v>
+        <v>10800405535726.9</v>
       </c>
       <c r="F7" t="n">
-        <v>10800405535726.9</v>
+        <v>35686655215604.47</v>
       </c>
       <c r="G7" t="n">
-        <v>42902655005560.78</v>
+        <v>797324.6171769174</v>
       </c>
       <c r="H7" t="n">
-        <v>24920347.927604</v>
+        <v>25012134.60675427</v>
       </c>
       <c r="I7" t="n">
-        <v>199181696027990.4</v>
+        <v>178618041970463.5</v>
       </c>
       <c r="J7" t="n">
-        <v>51734408.99145064</v>
+        <v>51826195.67060089</v>
       </c>
       <c r="K7" t="n">
-        <v>3850081.597740996</v>
+        <v>3446481.835281361</v>
       </c>
     </row>
     <row r="8">
@@ -21332,34 +21332,34 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>138535.9672203966</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11090316324029.86</v>
       </c>
       <c r="D8" t="n">
-        <v>11090316324029.86</v>
+        <v>13334382351692.27</v>
       </c>
       <c r="E8" t="n">
-        <v>13334382351692.27</v>
+        <v>10588632878163.62</v>
       </c>
       <c r="F8" t="n">
-        <v>10588632878163.62</v>
+        <v>35013331692421.72</v>
       </c>
       <c r="G8" t="n">
-        <v>35013331553885.76</v>
+        <v>782280.970830281</v>
       </c>
       <c r="H8" t="n">
-        <v>24113020.941193</v>
+        <v>24666681.45794003</v>
       </c>
       <c r="I8" t="n">
-        <v>234195027581876.2</v>
+        <v>213631373662885.2</v>
       </c>
       <c r="J8" t="n">
-        <v>75847429.93264364</v>
+        <v>76492877.12854093</v>
       </c>
       <c r="K8" t="n">
-        <v>3087712.105602698</v>
+        <v>2792827.014519177</v>
       </c>
     </row>
     <row r="9">
@@ -21367,34 +21367,34 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>135819.5757062711</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10872859141205.75</v>
       </c>
       <c r="D9" t="n">
-        <v>10872859141205.75</v>
+        <v>13144701027182.11</v>
       </c>
       <c r="E9" t="n">
-        <v>13144701027182.11</v>
+        <v>10381012625650.61</v>
       </c>
       <c r="F9" t="n">
-        <v>10381012625650.61</v>
+        <v>34398572929858.05</v>
       </c>
       <c r="G9" t="n">
-        <v>34398572794038.47</v>
+        <v>768545.8003006848</v>
       </c>
       <c r="H9" t="n">
-        <v>25457945.8874835</v>
+        <v>25638160.22365727</v>
       </c>
       <c r="I9" t="n">
-        <v>268593600375914.7</v>
+        <v>248029946592743.2</v>
       </c>
       <c r="J9" t="n">
-        <v>101305375.8201271</v>
+        <v>102131037.3521982</v>
       </c>
       <c r="K9" t="n">
-        <v>2651326.232211174</v>
+        <v>2428546.238470227</v>
       </c>
     </row>
     <row r="10">
@@ -21402,34 +21402,34 @@
         <v>2033</v>
       </c>
       <c r="B10" t="n">
-        <v>4620188330988.604</v>
+        <v>227040.3876017663</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>11918247127784.91</v>
       </c>
       <c r="D10" t="n">
-        <v>11918247127784.91</v>
+        <v>17148544247957.04</v>
       </c>
       <c r="E10" t="n">
-        <v>17148544247957.04</v>
+        <v>10121158700916.52</v>
       </c>
       <c r="F10" t="n">
-        <v>10121158700916.52</v>
+        <v>39187950303698.84</v>
       </c>
       <c r="G10" t="n">
-        <v>43808138407647.06</v>
+        <v>875551.8634366782</v>
       </c>
       <c r="H10" t="n">
-        <v>35421513.27756117</v>
+        <v>35442986.70372339</v>
       </c>
       <c r="I10" t="n">
-        <v>312401738783561.8</v>
+        <v>287217896896442.1</v>
       </c>
       <c r="J10" t="n">
-        <v>136726889.0976883</v>
+        <v>137574024.0559216</v>
       </c>
       <c r="K10" t="n">
-        <v>2284859.553561243</v>
+        <v>2087733.486516995</v>
       </c>
     </row>
     <row r="11">
@@ -21437,34 +21437,34 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>222588.6152958493</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>11684556007632.27</v>
       </c>
       <c r="D11" t="n">
-        <v>11684556007632.27</v>
+        <v>17058936944383.24</v>
       </c>
       <c r="E11" t="n">
-        <v>17058936944383.24</v>
+        <v>9922704608741.682</v>
       </c>
       <c r="F11" t="n">
-        <v>9922704608741.682</v>
+        <v>38666197783345.8</v>
       </c>
       <c r="G11" t="n">
-        <v>38666197560757.19</v>
+        <v>863894.6732058136</v>
       </c>
       <c r="H11" t="n">
-        <v>35286201.55440811</v>
+        <v>35025763.2397436</v>
       </c>
       <c r="I11" t="n">
-        <v>351067936344318.9</v>
+        <v>325884094679787.9</v>
       </c>
       <c r="J11" t="n">
-        <v>172013090.6520964</v>
+        <v>172599787.2956652</v>
       </c>
       <c r="K11" t="n">
-        <v>2040937.320604095</v>
+        <v>1888090.940237053</v>
       </c>
     </row>
     <row r="12">
@@ -21472,34 +21472,34 @@
         <v>2035</v>
       </c>
       <c r="B12" t="n">
-        <v>5621498579156.311</v>
+        <v>353581.6021223901</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13071998931847.88</v>
       </c>
       <c r="D12" t="n">
-        <v>13071998931847.88</v>
+        <v>22147062351333</v>
       </c>
       <c r="E12" t="n">
-        <v>22147062351333</v>
+        <v>9690050430140.549</v>
       </c>
       <c r="F12" t="n">
-        <v>9690050430140.549</v>
+        <v>44909112066903.03</v>
       </c>
       <c r="G12" t="n">
-        <v>50530610292477.73</v>
+        <v>1003376.202397404</v>
       </c>
       <c r="H12" t="n">
-        <v>46429582.82625106</v>
+        <v>46969927.89300038</v>
       </c>
       <c r="I12" t="n">
-        <v>401598546636796.7</v>
+        <v>370793206746691</v>
       </c>
       <c r="J12" t="n">
-        <v>218442673.4783475</v>
+        <v>219569715.1886656</v>
       </c>
       <c r="K12" t="n">
-        <v>1838461.964606032</v>
+        <v>1688726.546045234</v>
       </c>
     </row>
     <row r="13">
@@ -21507,34 +21507,34 @@
         <v>2036</v>
       </c>
       <c r="B13" t="n">
-        <v>3617491184780.334</v>
+        <v>390883.0966818859</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13801122712319.51</v>
       </c>
       <c r="D13" t="n">
-        <v>13801122712319.51</v>
+        <v>24914914400460.56</v>
       </c>
       <c r="E13" t="n">
-        <v>24914914400460.56</v>
+        <v>9455964311486.238</v>
       </c>
       <c r="F13" t="n">
-        <v>9455964311486.238</v>
+        <v>48172001815149.41</v>
       </c>
       <c r="G13" t="n">
-        <v>51789492609046.64</v>
+        <v>1076276.907260141</v>
       </c>
       <c r="H13" t="n">
-        <v>55795602.68179953</v>
+        <v>55770409.46134413</v>
       </c>
       <c r="I13" t="n">
-        <v>453388039245843.3</v>
+        <v>418965208561840.4</v>
       </c>
       <c r="J13" t="n">
-        <v>274238276.160147</v>
+        <v>275340124.6500097</v>
       </c>
       <c r="K13" t="n">
-        <v>1653263.160759799</v>
+        <v>1521627.874231536</v>
       </c>
     </row>
     <row r="14">
@@ -21542,34 +21542,34 @@
         <v>2037</v>
       </c>
       <c r="B14" t="n">
-        <v>3100423292197.442</v>
+        <v>426585.8468941341</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>14375095953519.22</v>
       </c>
       <c r="D14" t="n">
-        <v>14375095953519.22</v>
+        <v>26482858851734.69</v>
       </c>
       <c r="E14" t="n">
-        <v>26482858851734.69</v>
+        <v>9232769446574.25</v>
       </c>
       <c r="F14" t="n">
-        <v>9232769446574.25</v>
+        <v>50090724678414.01</v>
       </c>
       <c r="G14" t="n">
-        <v>53191147544025.6</v>
+        <v>1119145.732124179</v>
       </c>
       <c r="H14" t="n">
-        <v>64176069.28234462</v>
+        <v>63746808.95031373</v>
       </c>
       <c r="I14" t="n">
-        <v>506579186789868.9</v>
+        <v>469055933240254.4</v>
       </c>
       <c r="J14" t="n">
-        <v>338414345.4424917</v>
+        <v>339086933.6003234</v>
       </c>
       <c r="K14" t="n">
-        <v>1496919.955114475</v>
+        <v>1383291.087804414</v>
       </c>
     </row>
     <row r="15">
@@ -21577,34 +21577,34 @@
         <v>2038</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>418221.4185236609</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>14093231326979.62</v>
       </c>
       <c r="D15" t="n">
-        <v>14093231326979.62</v>
+        <v>25391883652830.24</v>
       </c>
       <c r="E15" t="n">
-        <v>25391883652830.24</v>
+        <v>9051734751543.381</v>
       </c>
       <c r="F15" t="n">
-        <v>9051734751543.381</v>
+        <v>48536850149574.66</v>
       </c>
       <c r="G15" t="n">
-        <v>48536849731353.25</v>
+        <v>1084428.485400926</v>
       </c>
       <c r="H15" t="n">
-        <v>63863027.56348772</v>
+        <v>63443844.04840357</v>
       </c>
       <c r="I15" t="n">
-        <v>555116036521222.2</v>
+        <v>517592783389829.1</v>
       </c>
       <c r="J15" t="n">
-        <v>402277373.0059794</v>
+        <v>402530777.648727</v>
       </c>
       <c r="K15" t="n">
-        <v>1379933.532858611</v>
+        <v>1285846.4796486</v>
       </c>
     </row>
     <row r="16">
@@ -21612,34 +21612,34 @@
         <v>2039</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>410020.9985526088</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13816893457823.16</v>
       </c>
       <c r="D16" t="n">
-        <v>13816893457823.16</v>
+        <v>24205205993640.59</v>
       </c>
       <c r="E16" t="n">
-        <v>24205205993640.59</v>
+        <v>8874249756415.08</v>
       </c>
       <c r="F16" t="n">
-        <v>8874249756415.08</v>
+        <v>46896349617899.83</v>
       </c>
       <c r="G16" t="n">
-        <v>46896349207878.83</v>
+        <v>1047775.808076765</v>
       </c>
       <c r="H16" t="n">
-        <v>63876690.25275618</v>
+        <v>63751461.70934831</v>
       </c>
       <c r="I16" t="n">
-        <v>602012385729101</v>
+        <v>564489133007728.9</v>
       </c>
       <c r="J16" t="n">
-        <v>466154063.2587355</v>
+        <v>466282239.3580753</v>
       </c>
       <c r="K16" t="n">
-        <v>1291445.110486913</v>
+        <v>1210616.843963119</v>
       </c>
     </row>
     <row r="17">
@@ -21647,34 +21647,34 @@
         <v>2040</v>
       </c>
       <c r="B17" t="n">
-        <v>2564891083104.328</v>
+        <v>442847.1812793771</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>14244673626487.29</v>
       </c>
       <c r="D17" t="n">
-        <v>14244673626487.29</v>
+        <v>25141320730521.45</v>
       </c>
       <c r="E17" t="n">
-        <v>25141320730521.45</v>
+        <v>8668987407417.146</v>
       </c>
       <c r="F17" t="n">
-        <v>8668987407417.146</v>
+        <v>48054982207273.06</v>
       </c>
       <c r="G17" t="n">
-        <v>50619872847530.21</v>
+        <v>1073662.411351559</v>
       </c>
       <c r="H17" t="n">
-        <v>71078109.57150184</v>
+        <v>70465569.48921943</v>
       </c>
       <c r="I17" t="n">
-        <v>652632258576631.2</v>
+        <v>612544115215002</v>
       </c>
       <c r="J17" t="n">
-        <v>537232172.8302374</v>
+        <v>536747808.8472947</v>
       </c>
       <c r="K17" t="n">
-        <v>1214804.867583498</v>
+        <v>1141214.002401771</v>
       </c>
     </row>
     <row r="18">
@@ -21682,34 +21682,34 @@
         <v>2041</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>434163.9032150756</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>13965366300477.73</v>
       </c>
       <c r="D18" t="n">
-        <v>13965366300477.73</v>
+        <v>23977864762363.48</v>
       </c>
       <c r="E18" t="n">
-        <v>23977864762363.48</v>
+        <v>8499007262173.672</v>
       </c>
       <c r="F18" t="n">
-        <v>8499007262173.672</v>
+        <v>46442238759178.79</v>
       </c>
       <c r="G18" t="n">
-        <v>46442238325014.89</v>
+        <v>1037629.893185102</v>
       </c>
       <c r="H18" t="n">
-        <v>70869288.00532207</v>
+        <v>70801430.27798988</v>
       </c>
       <c r="I18" t="n">
-        <v>699074496901646.1</v>
+        <v>658986353974180.8</v>
       </c>
       <c r="J18" t="n">
-        <v>608101460.8355595</v>
+        <v>607549239.1252847</v>
       </c>
       <c r="K18" t="n">
-        <v>1149601.739060264</v>
+        <v>1084663.285765862</v>
       </c>
     </row>
     <row r="19">
@@ -21717,34 +21717,34 @@
         <v>2042</v>
       </c>
       <c r="B19" t="n">
-        <v>2721074557412.73</v>
+        <v>464929.8264405475</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>14432781035184.31</v>
       </c>
       <c r="D19" t="n">
-        <v>14432781035184.31</v>
+        <v>24915287320818.27</v>
       </c>
       <c r="E19" t="n">
-        <v>24915287320818.27</v>
+        <v>8299199254470.801</v>
       </c>
       <c r="F19" t="n">
-        <v>8299199254470.801</v>
+        <v>47647268075403.22</v>
       </c>
       <c r="G19" t="n">
-        <v>50368342167886.12</v>
+        <v>1064553.109508987</v>
       </c>
       <c r="H19" t="n">
-        <v>77094078.20831242</v>
+        <v>77589365.43066919</v>
       </c>
       <c r="I19" t="n">
-        <v>749442839069532.2</v>
+        <v>706633622049584</v>
       </c>
       <c r="J19" t="n">
-        <v>685195539.0438719</v>
+        <v>685138604.5559539</v>
       </c>
       <c r="K19" t="n">
-        <v>1093764.912882112</v>
+        <v>1031373.239444829</v>
       </c>
     </row>
     <row r="20">
@@ -21752,34 +21752,34 @@
         <v>2043</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>455813.5553338701</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>14149785328612.07</v>
       </c>
       <c r="D20" t="n">
-        <v>14149785328612.07</v>
+        <v>23774419397389.02</v>
       </c>
       <c r="E20" t="n">
-        <v>23774419397389.02</v>
+        <v>8136469857324.314</v>
       </c>
       <c r="F20" t="n">
-        <v>8136469857324.314</v>
+        <v>46060675039138.96</v>
       </c>
       <c r="G20" t="n">
-        <v>46060674583325.41</v>
+        <v>1029104.853638209</v>
       </c>
       <c r="H20" t="n">
-        <v>77021149.73761646</v>
+        <v>77385233.6838378</v>
       </c>
       <c r="I20" t="n">
-        <v>795503513652857.6</v>
+        <v>752694297088723</v>
       </c>
       <c r="J20" t="n">
-        <v>762216688.7814883</v>
+        <v>762523838.2397916</v>
       </c>
       <c r="K20" t="n">
-        <v>1043671.078528316</v>
+        <v>987109.2014988553</v>
       </c>
     </row>
     <row r="21">
@@ -21787,34 +21787,34 @@
         <v>2044</v>
       </c>
       <c r="B21" t="n">
-        <v>2487257009233.883</v>
+        <v>484629.7264284111</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14549889978205.48</v>
       </c>
       <c r="D21" t="n">
-        <v>14549889978205.48</v>
+        <v>24436390154909.96</v>
       </c>
       <c r="E21" t="n">
-        <v>24436390154909.96</v>
+        <v>7946619880806.635</v>
       </c>
       <c r="F21" t="n">
-        <v>7946619880806.635</v>
+        <v>46932900498551.8</v>
       </c>
       <c r="G21" t="n">
-        <v>49420157023155.96</v>
+        <v>1048592.441542334</v>
       </c>
       <c r="H21" t="n">
-        <v>84691925.44562417</v>
+        <v>84595571.83501865</v>
       </c>
       <c r="I21" t="n">
-        <v>844923670676013.6</v>
+        <v>799627197587274.8</v>
       </c>
       <c r="J21" t="n">
-        <v>846908614.2271125</v>
+        <v>847119410.0748103</v>
       </c>
       <c r="K21" t="n">
-        <v>997656.248244788</v>
+        <v>943936.8146654302</v>
       </c>
     </row>
     <row r="22">
@@ -21822,34 +21822,34 @@
         <v>2045</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>475127.1827729521</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>14264598017848.51</v>
       </c>
       <c r="D22" t="n">
-        <v>14264598017848.51</v>
+        <v>23330974528775.69</v>
       </c>
       <c r="E22" t="n">
-        <v>23330974528775.69</v>
+        <v>7790803804712.387</v>
       </c>
       <c r="F22" t="n">
-        <v>7790803804712.387</v>
+        <v>45386376826463.77</v>
       </c>
       <c r="G22" t="n">
-        <v>45386376351336.59</v>
+        <v>1014039.430413865</v>
       </c>
       <c r="H22" t="n">
-        <v>84614423.628398</v>
+        <v>84941188.04697324</v>
       </c>
       <c r="I22" t="n">
-        <v>890310047027350.2</v>
+        <v>845013574413738.5</v>
       </c>
       <c r="J22" t="n">
-        <v>931523037.8555105</v>
+        <v>932060598.1217835</v>
       </c>
       <c r="K22" t="n">
-        <v>955757.4110855723</v>
+        <v>906607.9781899853</v>
       </c>
     </row>
     <row r="23">
@@ -21857,34 +21857,34 @@
         <v>2046</v>
       </c>
       <c r="B23" t="n">
-        <v>2035591680465.387</v>
+        <v>490741.2525154639</v>
       </c>
       <c r="C23" t="n">
-        <v>158346196025.4253</v>
+        <v>14539413696636.23</v>
       </c>
       <c r="D23" t="n">
-        <v>14539413696636.23</v>
+        <v>23620954986734.2</v>
       </c>
       <c r="E23" t="n">
-        <v>23620954986734.2</v>
+        <v>7613235885066.712</v>
       </c>
       <c r="F23" t="n">
-        <v>7613235885066.712</v>
+        <v>45773605059178.39</v>
       </c>
       <c r="G23" t="n">
-        <v>47967542444927.95</v>
+        <v>1022691.028624567</v>
       </c>
       <c r="H23" t="n">
         <v>90443817.070032</v>
       </c>
       <c r="I23" t="n">
-        <v>938277589472278.2</v>
+        <v>890787179472916.9</v>
       </c>
       <c r="J23" t="n">
-        <v>1021966854.925542</v>
+        <v>1022504415.191815</v>
       </c>
       <c r="K23" t="n">
-        <v>918109.6088880871</v>
+        <v>871181.7438028478</v>
       </c>
     </row>
     <row r="24">
@@ -21892,34 +21892,34 @@
         <v>2047</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>476461.6339555893</v>
       </c>
       <c r="C24" t="n">
-        <v>155241368652.3777</v>
+        <v>14254327153564.93</v>
       </c>
       <c r="D24" t="n">
-        <v>14254327153564.93</v>
+        <v>22564210798821.11</v>
       </c>
       <c r="E24" t="n">
-        <v>22564210798821.11</v>
+        <v>7463956750065.404</v>
       </c>
       <c r="F24" t="n">
-        <v>7463956750065.404</v>
+        <v>44282495178913.08</v>
       </c>
       <c r="G24" t="n">
-        <v>44437736071103.83</v>
+        <v>989376.0931881022</v>
       </c>
       <c r="H24" t="n">
         <v>90443817.070032</v>
       </c>
       <c r="I24" t="n">
-        <v>982715325543382.1</v>
+        <v>935069674651830</v>
       </c>
       <c r="J24" t="n">
-        <v>1112410671.995574</v>
+        <v>1112948232.261847</v>
       </c>
       <c r="K24" t="n">
-        <v>883410.5517708407</v>
+        <v>840173.5566365792</v>
       </c>
     </row>
     <row r="25">
@@ -21927,34 +21927,34 @@
         <v>2048</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>467119.2489760679</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>13974830542710.71</v>
       </c>
       <c r="D25" t="n">
-        <v>13974830542710.71</v>
+        <v>21565955309583.68</v>
       </c>
       <c r="E25" t="n">
-        <v>21565955309583.68</v>
+        <v>7317604656926.866</v>
       </c>
       <c r="F25" t="n">
-        <v>7317604656926.866</v>
+        <v>42858390976340.51</v>
       </c>
       <c r="G25" t="n">
-        <v>42858390509221.26</v>
+        <v>957558.2236994617</v>
       </c>
       <c r="H25" t="n">
         <v>90443817.070032</v>
       </c>
       <c r="I25" t="n">
-        <v>1025573716052603</v>
+        <v>977928065628170.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1202854489.065607</v>
+        <v>1203392049.33188</v>
       </c>
       <c r="K25" t="n">
-        <v>852616.6093866288</v>
+        <v>812642.9505422724</v>
       </c>
     </row>
     <row r="26">
@@ -21962,34 +21962,34 @@
         <v>2049</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>453483.6533025932</v>
       </c>
       <c r="C26" t="n">
-        <v>59685262842.12907</v>
+        <v>13700814257559.52</v>
       </c>
       <c r="D26" t="n">
-        <v>13700814257559.52</v>
+        <v>20621458202773.05</v>
       </c>
       <c r="E26" t="n">
-        <v>20621458202773.05</v>
+        <v>7174122212673.398</v>
       </c>
       <c r="F26" t="n">
-        <v>7174122212673.398</v>
+        <v>41496395126489.62</v>
       </c>
       <c r="G26" t="n">
-        <v>41556079935848.11</v>
+        <v>927128.0022898616</v>
       </c>
       <c r="H26" t="n">
         <v>90443817.070032</v>
       </c>
       <c r="I26" t="n">
-        <v>1067129795988452</v>
+        <v>1019424460754660</v>
       </c>
       <c r="J26" t="n">
-        <v>1293298306.135639</v>
+        <v>1293835866.401912</v>
       </c>
       <c r="K26" t="n">
-        <v>825122.7044261921</v>
+        <v>787908.6422218492</v>
       </c>
     </row>
     <row r="27">
@@ -21997,34 +21997,34 @@
         <v>2050</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>404362.7795084603</v>
       </c>
       <c r="C27" t="n">
-        <v>1942464437379.885</v>
+        <v>13432170840744.63</v>
       </c>
       <c r="D27" t="n">
-        <v>13432170840744.63</v>
+        <v>19728541248611.37</v>
       </c>
       <c r="E27" t="n">
-        <v>19728541248611.37</v>
+        <v>7033453149679.802</v>
       </c>
       <c r="F27" t="n">
-        <v>7033453149679.802</v>
+        <v>40194165643398.58</v>
       </c>
       <c r="G27" t="n">
-        <v>42136629676415.69</v>
+        <v>898033.103431757</v>
       </c>
       <c r="H27" t="n">
         <v>90443817.070032</v>
       </c>
       <c r="I27" t="n">
-        <v>1109266425664867</v>
+        <v>1059618626398059</v>
       </c>
       <c r="J27" t="n">
-        <v>1383742123.205671</v>
+        <v>1384279683.471944</v>
       </c>
       <c r="K27" t="n">
-        <v>801642.4498916499</v>
+        <v>765465.706858028</v>
       </c>
     </row>
   </sheetData>
@@ -23547,7 +23547,7 @@
         <v>1001484618300</v>
       </c>
       <c r="E3" t="n">
-        <v>8431923.390200919</v>
+        <v>8431923.390200917</v>
       </c>
     </row>
     <row r="4">
@@ -24106,13 +24106,13 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>62370690.80458587</v>
+        <v>62370690.80458586</v>
       </c>
       <c r="C3" t="n">
         <v>5197557.567048823</v>
       </c>
       <c r="D3" t="n">
-        <v>2970032.895456469</v>
+        <v>2970032.89545647</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -24159,7 +24159,7 @@
         <v>4890068.757009435</v>
       </c>
       <c r="D4" t="n">
-        <v>2794325.004005391</v>
+        <v>2794325.004005392</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>4890068.757009435</v>
       </c>
       <c r="D5" t="n">
-        <v>2794325.004005391</v>
+        <v>2794325.004005392</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -26864,7 +26864,7 @@
         <v>867158074050</v>
       </c>
       <c r="E7" t="n">
-        <v>7442161.853648886</v>
+        <v>7486137.08879384</v>
       </c>
     </row>
     <row r="8">
@@ -26898,7 +26898,7 @@
         <v>867158074050</v>
       </c>
       <c r="E9" t="n">
-        <v>7082599.636875444</v>
+        <v>6795467.219164276</v>
       </c>
     </row>
     <row r="10">
@@ -26915,7 +26915,7 @@
         <v>867158074050</v>
       </c>
       <c r="E10" t="n">
-        <v>7199004.671082675</v>
+        <v>7103293.865178952</v>
       </c>
     </row>
     <row r="11">
@@ -26932,7 +26932,7 @@
         <v>867158074050</v>
       </c>
       <c r="E11" t="n">
-        <v>7581847.894697562</v>
+        <v>7581847.894697568</v>
       </c>
     </row>
     <row r="12">
@@ -26949,7 +26949,7 @@
         <v>867158074050</v>
       </c>
       <c r="E12" t="n">
-        <v>7103293.865178951</v>
+        <v>6795467.219164278</v>
       </c>
     </row>
     <row r="13">
@@ -26966,7 +26966,7 @@
         <v>867158074050</v>
       </c>
       <c r="E13" t="n">
-        <v>7222285.677924119</v>
+        <v>7361971.718972795</v>
       </c>
     </row>
     <row r="14">
@@ -26983,7 +26983,7 @@
         <v>867158074050</v>
       </c>
       <c r="E14" t="n">
-        <v>6883417.689454184</v>
+        <v>6795467.219164278</v>
       </c>
     </row>
     <row r="15">
@@ -27000,7 +27000,7 @@
         <v>867158074050</v>
       </c>
       <c r="E15" t="n">
-        <v>6795467.219164282</v>
+        <v>7103293.865178952</v>
       </c>
     </row>
     <row r="16">
@@ -27017,7 +27017,7 @@
         <v>867158074050</v>
       </c>
       <c r="E16" t="n">
-        <v>7082599.636875444</v>
+        <v>7442161.853648887</v>
       </c>
     </row>
     <row r="17">
@@ -27034,7 +27034,7 @@
         <v>867158074050</v>
       </c>
       <c r="E17" t="n">
-        <v>7103293.865178951</v>
+        <v>7103293.865178952</v>
       </c>
     </row>
     <row r="18">
@@ -27051,7 +27051,7 @@
         <v>867158074050</v>
       </c>
       <c r="E18" t="n">
-        <v>7199004.671082674</v>
+        <v>7222285.67792412</v>
       </c>
     </row>
     <row r="19">
@@ -27502,7 +27502,7 @@
         <v>4500422.59985658</v>
       </c>
       <c r="D6" t="n">
-        <v>2571670.057060902</v>
+        <v>2571670.057060903</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C7" t="n">
-        <v>3880167.806907654</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5820251.710361486</v>
+        <v>5173557.075876871</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27646,13 +27646,13 @@
         <v>2586778.537938438</v>
       </c>
       <c r="E9" t="n">
-        <v>1293389.268969215</v>
+        <v>3233473.172423048</v>
       </c>
       <c r="F9" t="n">
         <v>3233473.172423048</v>
       </c>
       <c r="G9" t="n">
-        <v>5820251.710361486</v>
+        <v>3880167.806907654</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27687,16 +27687,16 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C10" t="n">
-        <v>4526862.441392267</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D10" t="n">
-        <v>1940083.903453824</v>
+        <v>2586778.537938438</v>
       </c>
       <c r="E10" t="n">
         <v>3233473.172423048</v>
       </c>
       <c r="F10" t="n">
-        <v>3233473.172423048</v>
+        <v>2586778.537938433</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -27737,16 +27737,16 @@
         <v>4526862.441392268</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2586778.537938439</v>
       </c>
       <c r="E11" t="n">
-        <v>2586778.537938484</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5820251.710361486</v>
+        <v>5820251.710361532</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -27781,19 +27781,19 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C12" t="n">
-        <v>4526862.441392267</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2586778.537938439</v>
+        <v>2586778.537938438</v>
       </c>
       <c r="E12" t="n">
         <v>3233473.172423048</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3233473.172423048</v>
       </c>
       <c r="G12" t="n">
-        <v>2586778.537938434</v>
+        <v>3880167.806907661</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C13" t="n">
-        <v>646694.634484606</v>
+        <v>1293389.268969216</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2586778.537938438</v>
       </c>
       <c r="E13" t="n">
-        <v>3233473.172423048</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>3233473.172423048</v>
       </c>
       <c r="G13" t="n">
-        <v>5820251.710361486</v>
+        <v>5820251.710361485</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -27875,7 +27875,7 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C14" t="n">
-        <v>1293389.268969215</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>2586778.537938438</v>
@@ -27884,10 +27884,10 @@
         <v>3233473.172423048</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3233473.172423048</v>
       </c>
       <c r="G14" t="n">
-        <v>5820251.710361486</v>
+        <v>3880167.806907661</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -27919,10 +27919,10 @@
         <v>2038</v>
       </c>
       <c r="B15" t="n">
-        <v>51735570.75876874</v>
+        <v>51735570.75876877</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D15" t="n">
         <v>2586778.537938438</v>
@@ -27931,10 +27931,10 @@
         <v>3233473.172423048</v>
       </c>
       <c r="F15" t="n">
-        <v>1293389.268969255</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5820251.710361486</v>
+        <v>2586778.537938433</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -27969,16 +27969,16 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3880167.806907655</v>
       </c>
       <c r="D16" t="n">
-        <v>646694.6344846135</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>3233473.172423048</v>
       </c>
       <c r="F16" t="n">
-        <v>3233473.172423048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>5820251.710361485</v>
@@ -28016,16 +28016,16 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C17" t="n">
-        <v>4526862.441392267</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D17" t="n">
-        <v>2586778.537938439</v>
+        <v>2586778.537938438</v>
       </c>
       <c r="E17" t="n">
         <v>3233473.172423048</v>
       </c>
       <c r="F17" t="n">
-        <v>2586778.537938434</v>
+        <v>2586778.537938433</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28063,19 +28063,19 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C18" t="n">
-        <v>4526862.441392267</v>
+        <v>646694.6344846068</v>
       </c>
       <c r="D18" t="n">
-        <v>2586778.537938439</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2586778.537938434</v>
+        <v>3233473.172423048</v>
       </c>
       <c r="F18" t="n">
         <v>3233473.172423048</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>5820251.710361484</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -30086,10 +30086,10 @@
         <v>0.0004918450332901381</v>
       </c>
       <c r="H3" t="n">
-        <v>682534.1909996165</v>
+        <v>682534.1909996164</v>
       </c>
       <c r="I3" t="n">
-        <v>1.970022388181437</v>
+        <v>1.970022388181438</v>
       </c>
     </row>
     <row r="4">
@@ -30144,7 +30144,7 @@
         <v>0.0007599535278609411</v>
       </c>
       <c r="H5" t="n">
-        <v>669894.6226449888</v>
+        <v>669894.6226449887</v>
       </c>
       <c r="I5" t="n">
         <v>1.853475098110931</v>
@@ -30205,7 +30205,7 @@
         <v>1058313.548370169</v>
       </c>
       <c r="I7" t="n">
-        <v>1.463949889236069</v>
+        <v>1.461899156872017</v>
       </c>
     </row>
     <row r="8">
@@ -30234,7 +30234,7 @@
         <v>880975.4271686968</v>
       </c>
       <c r="I8" t="n">
-        <v>1.481987491148823</v>
+        <v>1.469617400511461</v>
       </c>
     </row>
     <row r="9">
@@ -30263,7 +30263,7 @@
         <v>882817.5422517189</v>
       </c>
       <c r="I9" t="n">
-        <v>1.451938674260434</v>
+        <v>1.447912258062798</v>
       </c>
     </row>
     <row r="10">
@@ -30292,7 +30292,7 @@
         <v>1146794.234093689</v>
       </c>
       <c r="I10" t="n">
-        <v>1.229328919801395</v>
+        <v>1.228849152471259</v>
       </c>
     </row>
     <row r="11">
@@ -30321,7 +30321,7 @@
         <v>1032434.098077283</v>
       </c>
       <c r="I11" t="n">
-        <v>1.232352105000757</v>
+        <v>1.238170915373529</v>
       </c>
     </row>
     <row r="12">
@@ -30350,7 +30350,7 @@
         <v>1376212.788450333</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9833825068988994</v>
+        <v>0.9713099150326561</v>
       </c>
     </row>
     <row r="13">
@@ -30379,7 +30379,7 @@
         <v>1438708.71251806</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7741233832662869</v>
+        <v>0.7746862596337609</v>
       </c>
     </row>
     <row r="14">
@@ -30408,7 +30408,7 @@
         <v>1507199.526700839</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5868838595935335</v>
+        <v>0.5964745547101807</v>
       </c>
     </row>
     <row r="15">
@@ -30437,7 +30437,7 @@
         <v>1402823.866880069</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5938779549252486</v>
+        <v>0.6032435100234245</v>
       </c>
     </row>
     <row r="16">
@@ -30466,7 +30466,7 @@
         <v>1382517.915120793</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5935726980042858</v>
+        <v>0.5963706010251507</v>
       </c>
     </row>
     <row r="17">
@@ -30495,7 +30495,7 @@
         <v>1522134.236460168</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4326758903107861</v>
+        <v>0.4463614902545373</v>
       </c>
     </row>
     <row r="18">
@@ -30524,7 +30524,7 @@
         <v>1424443.471222839</v>
       </c>
       <c r="I18" t="n">
-        <v>0.437341459955984</v>
+        <v>0.4388575627159864</v>
       </c>
     </row>
     <row r="19">
@@ -30553,7 +30553,7 @@
         <v>1575759.393170618</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2982648657607483</v>
+        <v>0.2871989731302295</v>
       </c>
     </row>
     <row r="20">
@@ -30582,7 +30582,7 @@
         <v>1469815.131026104</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2998942609682189</v>
+        <v>0.2917597610749854</v>
       </c>
     </row>
     <row r="21">
@@ -30611,7 +30611,7 @@
         <v>1608557.953872197</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1285109170295326</v>
+        <v>0.1306636854866916</v>
       </c>
     </row>
     <row r="22">
@@ -30640,7 +30640,7 @@
         <v>1506809.235268828</v>
       </c>
       <c r="I22" t="n">
-        <v>0.130242491658117</v>
+        <v>0.122941798629491</v>
       </c>
     </row>
     <row r="23">
@@ -30933,7 +30933,7 @@
         <v>785645115450</v>
       </c>
       <c r="E7" t="n">
-        <v>6543389.994334997</v>
+        <v>6395741.867671994</v>
       </c>
     </row>
     <row r="8">
@@ -30950,7 +30950,7 @@
         <v>785645115450</v>
       </c>
       <c r="E8" t="n">
-        <v>6869153.32141686</v>
+        <v>6782439.342265572</v>
       </c>
     </row>
     <row r="9">
@@ -30967,7 +30967,7 @@
         <v>785645115450</v>
       </c>
       <c r="E9" t="n">
-        <v>6395741.867671994</v>
+        <v>6156692.519741417</v>
       </c>
     </row>
     <row r="10">
@@ -30984,7 +30984,7 @@
         <v>785645115450</v>
       </c>
       <c r="E10" t="n">
-        <v>6742597.784277144</v>
+        <v>6156692.519741417</v>
       </c>
     </row>
     <row r="11">
@@ -31001,7 +31001,7 @@
         <v>785645115450</v>
       </c>
       <c r="E11" t="n">
-        <v>7216009.238022011</v>
+        <v>6543389.994334997</v>
       </c>
     </row>
     <row r="12">
@@ -31018,7 +31018,7 @@
         <v>785645115450</v>
       </c>
       <c r="E12" t="n">
-        <v>7176167.680033581</v>
+        <v>6416834.45719528</v>
       </c>
     </row>
     <row r="13">
@@ -31035,7 +31035,7 @@
         <v>785645115450</v>
       </c>
       <c r="E13" t="n">
-        <v>6435583.425660423</v>
+        <v>6869153.32141686</v>
       </c>
     </row>
     <row r="14">
@@ -31052,7 +31052,7 @@
         <v>785645115450</v>
       </c>
       <c r="E14" t="n">
-        <v>6782439.342265573</v>
+        <v>7216009.238022011</v>
       </c>
     </row>
     <row r="15">
@@ -31069,7 +31069,7 @@
         <v>785645115450</v>
       </c>
       <c r="E15" t="n">
-        <v>6435583.425660423</v>
+        <v>6869153.321416861</v>
       </c>
     </row>
     <row r="16">
@@ -31086,7 +31086,7 @@
         <v>785645115450</v>
       </c>
       <c r="E16" t="n">
-        <v>6522297.404811711</v>
+        <v>6395741.867671994</v>
       </c>
     </row>
     <row r="17">
@@ -31483,7 +31483,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2987559.806073283</v>
+        <v>2987559.806073282</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -31530,7 +31530,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2987559.806073283</v>
+        <v>2987559.806073282</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -31571,7 +31571,7 @@
         <v>4077382.358356779</v>
       </c>
       <c r="D6" t="n">
-        <v>2329932.776203874</v>
+        <v>2329932.776203873</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -31615,19 +31615,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C7" t="n">
-        <v>585905.2645357233</v>
+        <v>3515431.587214357</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2343621.058142907</v>
       </c>
       <c r="E7" t="n">
-        <v>2929526.322678634</v>
+        <v>2929526.322678633</v>
       </c>
       <c r="F7" t="n">
         <v>2929526.322678634</v>
       </c>
       <c r="G7" t="n">
-        <v>5273147.38082154</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -31662,19 +31662,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C8" t="n">
-        <v>4101336.851750084</v>
+        <v>4101336.851750088</v>
       </c>
       <c r="D8" t="n">
-        <v>2343621.058142907</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2929526.322678634</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2929526.322678634</v>
       </c>
       <c r="G8" t="n">
-        <v>5273147.380821539</v>
+        <v>1757715.793607175</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -31709,19 +31709,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C9" t="n">
-        <v>3515431.587214357</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2343621.058142907</v>
       </c>
       <c r="E9" t="n">
-        <v>2929526.322678633</v>
+        <v>2929526.322678634</v>
       </c>
       <c r="F9" t="n">
         <v>2929526.322678634</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3515431.587214356</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -31756,19 +31756,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C10" t="n">
-        <v>3515431.587214357</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2343621.058142907</v>
       </c>
       <c r="E10" t="n">
         <v>2929526.322678634</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2929526.322678634</v>
       </c>
       <c r="G10" t="n">
-        <v>5273147.380821541</v>
+        <v>3515431.587214356</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -31803,16 +31803,16 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C11" t="n">
-        <v>4101336.851750088</v>
+        <v>585905.2645357233</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2929526.322678634</v>
       </c>
       <c r="F11" t="n">
-        <v>2343621.058142903</v>
+        <v>2929526.322678634</v>
       </c>
       <c r="G11" t="n">
         <v>5273147.38082154</v>
@@ -31850,19 +31850,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C12" t="n">
-        <v>3515431.587214357</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2343621.058142907</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1171810.52907145</v>
       </c>
       <c r="F12" t="n">
         <v>2929526.322678634</v>
       </c>
       <c r="G12" t="n">
-        <v>5273147.380821541</v>
+        <v>5273147.380821539</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -31897,19 +31897,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C13" t="n">
-        <v>4101336.851750087</v>
+        <v>4101336.851750084</v>
       </c>
       <c r="D13" t="n">
         <v>2343621.058142907</v>
       </c>
       <c r="E13" t="n">
-        <v>2929526.322678634</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2343621.058142904</v>
+        <v>5273147.380821539</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -31944,19 +31944,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C14" t="n">
-        <v>4101336.851750087</v>
+        <v>4101336.851750088</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2929526.322678633</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2929526.322678633</v>
+        <v>2343621.058142903</v>
       </c>
       <c r="G14" t="n">
-        <v>1757715.793607176</v>
+        <v>5273147.38082154</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31991,19 +31991,19 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C15" t="n">
-        <v>4101336.851750087</v>
+        <v>4101336.851750088</v>
       </c>
       <c r="D15" t="n">
-        <v>2343621.058142907</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2929526.322678634</v>
+        <v>2343621.058142903</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2343621.058142904</v>
+        <v>5273147.38082154</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -32038,16 +32038,16 @@
         <v>46872421.16285815</v>
       </c>
       <c r="C16" t="n">
-        <v>4101336.851750087</v>
+        <v>3515431.587214357</v>
       </c>
       <c r="D16" t="n">
-        <v>1757715.793607176</v>
+        <v>2343621.058142907</v>
       </c>
       <c r="E16" t="n">
         <v>2929526.322678633</v>
       </c>
       <c r="F16" t="n">
-        <v>2929526.322678633</v>
+        <v>2929526.322678634</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -34676,7 +34676,7 @@
         <v>60751450.60700499</v>
       </c>
       <c r="C3" t="n">
-        <v>5062620.883917083</v>
+        <v>5062620.883917082</v>
       </c>
       <c r="D3" t="n">
         <v>2892926.21938119</v>
@@ -37465,7 +37465,7 @@
         <v>867158074050</v>
       </c>
       <c r="E9" t="n">
-        <v>6883417.689454184</v>
+        <v>7059318.630033997</v>
       </c>
     </row>
     <row r="10">
@@ -37482,7 +37482,7 @@
         <v>867158074050</v>
       </c>
       <c r="E10" t="n">
-        <v>7486137.08879384</v>
+        <v>7059318.630033997</v>
       </c>
     </row>
     <row r="11">
@@ -37499,7 +37499,7 @@
         <v>867158074050</v>
       </c>
       <c r="E11" t="n">
-        <v>7222285.677924119</v>
+        <v>7199004.671082674</v>
       </c>
     </row>
     <row r="12">
@@ -38069,7 +38069,7 @@
         <v>4500422.59985658</v>
       </c>
       <c r="D6" t="n">
-        <v>2571670.057060902</v>
+        <v>2571670.057060903</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C7" t="n">
-        <v>4526862.441392267</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -38122,10 +38122,10 @@
         <v>3233473.172423048</v>
       </c>
       <c r="F7" t="n">
-        <v>3233473.172423048</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1940083.903453824</v>
+        <v>5173557.075876871</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C8" t="n">
-        <v>1293389.268969215</v>
+        <v>1293389.268969216</v>
       </c>
       <c r="D8" t="n">
         <v>2586778.537938438</v>
@@ -38172,7 +38172,7 @@
         <v>3233473.172423048</v>
       </c>
       <c r="G8" t="n">
-        <v>5820251.710361486</v>
+        <v>5820251.710361485</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -38207,7 +38207,7 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C9" t="n">
-        <v>1293389.268969215</v>
+        <v>3880167.806907654</v>
       </c>
       <c r="D9" t="n">
         <v>2586778.537938438</v>
@@ -38216,10 +38216,10 @@
         <v>3233473.172423048</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3233473.172423048</v>
       </c>
       <c r="G9" t="n">
-        <v>5820251.710361486</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -38254,10 +38254,10 @@
         <v>51735570.75876877</v>
       </c>
       <c r="C10" t="n">
-        <v>4526862.441392267</v>
+        <v>3880167.806907654</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2586778.537938438</v>
       </c>
       <c r="E10" t="n">
         <v>3233473.172423048</v>
@@ -38266,7 +38266,7 @@
         <v>3233473.172423048</v>
       </c>
       <c r="G10" t="n">
-        <v>1940083.903453824</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -38298,13 +38298,13 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>51735570.75876877</v>
+        <v>51735570.75876874</v>
       </c>
       <c r="C11" t="n">
-        <v>646694.634484606</v>
+        <v>4526862.441392268</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1940083.903453859</v>
       </c>
       <c r="E11" t="n">
         <v>3233473.172423048</v>
@@ -38313,7 +38313,7 @@
         <v>3233473.172423048</v>
       </c>
       <c r="G11" t="n">
-        <v>5820251.710361486</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -68006,7 +68006,7 @@
         <v>894907118400</v>
       </c>
       <c r="E7" t="n">
-        <v>7103686.944230476</v>
+        <v>7309242.710748984</v>
       </c>
     </row>
     <row r="8">
@@ -68023,7 +68023,7 @@
         <v>894907118400</v>
       </c>
       <c r="E8" t="n">
-        <v>8219561.105330943</v>
+        <v>7330599.154023634</v>
       </c>
     </row>
     <row r="9">
@@ -68040,7 +68040,7 @@
         <v>894907118400</v>
       </c>
       <c r="E9" t="n">
-        <v>7429372.704168892</v>
+        <v>7453398.702852872</v>
       </c>
     </row>
     <row r="10">
@@ -68057,7 +68057,7 @@
         <v>894907118400</v>
       </c>
       <c r="E10" t="n">
-        <v>7824466.904749918</v>
+        <v>7309242.710748984</v>
       </c>
     </row>
     <row r="11">
@@ -68074,7 +68074,7 @@
         <v>894907118400</v>
       </c>
       <c r="E11" t="n">
-        <v>7453398.702852872</v>
+        <v>7012922.060313215</v>
       </c>
     </row>
     <row r="12">
@@ -68091,7 +68091,7 @@
         <v>894907118400</v>
       </c>
       <c r="E12" t="n">
-        <v>7725693.354604661</v>
+        <v>8219561.105330942</v>
       </c>
     </row>
     <row r="13">
@@ -68108,7 +68108,7 @@
         <v>894907118400</v>
       </c>
       <c r="E13" t="n">
-        <v>7330599.154023634</v>
+        <v>7725693.35460466</v>
       </c>
     </row>
     <row r="14">
@@ -75004,10 +75004,10 @@
         <v>60766168.84634365</v>
       </c>
       <c r="C3" t="n">
-        <v>5063847.40386197</v>
+        <v>5063847.403861971</v>
       </c>
       <c r="D3" t="n">
-        <v>2893627.087921125</v>
+        <v>2893627.087921126</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -75192,16 +75192,16 @@
         <v>53391108.18662516</v>
       </c>
       <c r="C7" t="n">
-        <v>1334777.704665624</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2669555.409331258</v>
       </c>
       <c r="E7" t="n">
+        <v>1334777.704665625</v>
+      </c>
+      <c r="F7" t="n">
         <v>3336944.261664073</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>6006499.670995329</v>
@@ -75242,16 +75242,16 @@
         <v>4671721.966329701</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2669555.409331258</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3336944.261664072</v>
       </c>
       <c r="F8" t="n">
-        <v>2669555.409331253</v>
+        <v>2669555.409331254</v>
       </c>
       <c r="G8" t="n">
-        <v>6006499.670995329</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -75286,19 +75286,19 @@
         <v>53391108.18662516</v>
       </c>
       <c r="C9" t="n">
-        <v>4671721.966329701</v>
+        <v>667388.8523328098</v>
       </c>
       <c r="D9" t="n">
-        <v>2669555.409331258</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2669555.409331254</v>
+        <v>3336944.261664073</v>
       </c>
       <c r="F9" t="n">
-        <v>3336944.261664072</v>
+        <v>3336944.261664073</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6006499.67099533</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -75333,19 +75333,19 @@
         <v>53391108.18662516</v>
       </c>
       <c r="C10" t="n">
-        <v>4671721.966329701</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2669555.409331253</v>
+        <v>667388.8523328098</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3336944.261664073</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3336944.261664073</v>
       </c>
       <c r="G10" t="n">
-        <v>6006499.670995329</v>
+        <v>6006499.67099533</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -75380,19 +75380,19 @@
         <v>53391108.18662516</v>
       </c>
       <c r="C11" t="n">
-        <v>667388.8523328098</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2669555.409331258</v>
       </c>
       <c r="E11" t="n">
         <v>3336944.261664073</v>
       </c>
       <c r="F11" t="n">
-        <v>3336944.261664073</v>
+        <v>1334777.704665625</v>
       </c>
       <c r="G11" t="n">
-        <v>6006499.67099533</v>
+        <v>6006499.670995329</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -75424,22 +75424,22 @@
         <v>2035</v>
       </c>
       <c r="B12" t="n">
-        <v>53391108.18662516</v>
+        <v>53391108.18662517</v>
       </c>
       <c r="C12" t="n">
-        <v>4671721.966329702</v>
+        <v>4671721.966329701</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3336944.261664072</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>3336944.261664072</v>
       </c>
       <c r="G12" t="n">
-        <v>2002166.556998439</v>
+        <v>5339110.818662506</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -75471,22 +75471,22 @@
         <v>2036</v>
       </c>
       <c r="B13" t="n">
-        <v>53391108.18662516</v>
+        <v>53391108.18662517</v>
       </c>
       <c r="C13" t="n">
         <v>4671721.966329701</v>
       </c>
       <c r="D13" t="n">
-        <v>2669555.409331258</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>3336944.261664072</v>
       </c>
       <c r="F13" t="n">
-        <v>2669555.409331254</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5339110.818662506</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
